--- a/output/extracted_data.xlsx
+++ b/output/extracted_data.xlsx
@@ -529,14 +529,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[{'serial_number': '2', 'description': 'ITEM NAME 2', 'hsn_sac': '2541', 'quantity': '26', 'unit_price': '.235.52', 'total_amount': '.6123.52'}, {'serial_number': '4', 'description': 'ITEM NAME 5', 'hsn_sac': '8151', 'quantity': '15', 'unit_price': '.215.00', 'total_amount': '.3225.00'}]</t>
+          <t>[{'serial_number': '2', 'description': 'ITEM NAME 2', 'hsn_sac': '2541', 'quantity': '26.0', 'unit_price': '0.23552', 'total_amount': '0.612352'}, {'serial_number': '4', 'description': 'ITEM NAME 5', 'hsn_sac': '8151', 'quantity': '15.0', 'unit_price': '0.215', 'total_amount': '0.3225'}]</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -578,14 +578,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[{'serial_number': '12', 'description': 'ITEM NAME 2', 'hsn_sac': '2541', 'quantity': '26', 'unit_price': '235.52', 'total_amount': '.6123.52'}, {'serial_number': '13', 'description': 'ITEM NAME 3', 'hsn_sac': '4944', 'quantity': '', 'unit_price': '.658.00', 'total_amount': '.1316.00'}, {'serial_number': '14', 'description': 'ITEM NAME 4', 'hsn_sac': '2545', 'quantity': '50', 'unit_price': '.485.00', 'total_amount': '.24250.00'}, {'serial_number': '15', 'description': 'ITEM NAME 5', 'hsn_sac': '8151', 'quantity': '15', 'unit_price': '.215.00', 'total_amount': '.3225.00'}]</t>
+          <t>[{'serial_number': '12', 'description': 'ITEM NAME 2', 'hsn_sac': '2541', 'quantity': '26.0', 'unit_price': '235.52', 'total_amount': '0.612352'}, {'serial_number': '13', 'description': 'ITEM NAME 3', 'hsn_sac': '4944', 'quantity': '', 'unit_price': '0.658', 'total_amount': '0.1316'}, {'serial_number': '14', 'description': 'ITEM NAME 4', 'hsn_sac': '2545', 'quantity': '50.0', 'unit_price': '0.485', 'total_amount': '0.2425'}, {'serial_number': '15', 'description': 'ITEM NAME 5', 'hsn_sac': '8151', 'quantity': '15.0', 'unit_price': '0.215', 'total_amount': '0.3225'}]</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
